--- a/common/src/main/webapp/imports/export-石月-28.xlsx
+++ b/common/src/main/webapp/imports/export-石月-28.xlsx
@@ -911,10 +911,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -930,8 +930,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,132 +1073,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1090,7 +1090,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,19 +1222,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,73 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,73 +1270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,60 +1281,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1362,11 +1308,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,161 +1333,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1889,7 +1889,7 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="C7" sqref="A1:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1940,7 +1940,7 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1949,13 +1949,13 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1977,29 +1977,29 @@
         <v>88338771</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2028,13 +2028,13 @@
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -2056,29 +2056,29 @@
         <v>24312166</v>
       </c>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2107,13 +2107,13 @@
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2131,29 +2131,29 @@
         <v>62837416</v>
       </c>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2182,13 +2182,13 @@
       <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2210,29 +2210,29 @@
         <v>88081180</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2261,13 +2261,13 @@
       <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -2289,29 +2289,29 @@
         <v>55</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AB5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       <c r="E6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2340,13 +2340,13 @@
       <c r="H6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2368,29 +2368,29 @@
         <v>89796378</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2" t="s">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       <c r="E7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2419,13 +2419,13 @@
       <c r="H7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2447,29 +2447,29 @@
         <v>13604922586</v>
       </c>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2" t="s">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AB7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       <c r="E8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2498,13 +2498,13 @@
       <c r="H8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>85</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -2526,29 +2526,29 @@
         <v>89731359</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2" t="s">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2" t="s">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2575,13 +2575,13 @@
       <c r="H9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2601,29 +2601,29 @@
         <v>89651678</v>
       </c>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2" t="s">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2" t="s">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AB9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       <c r="E10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2652,13 +2652,13 @@
       <c r="H10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -2667,7 +2667,7 @@
       <c r="M10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>105</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -2680,29 +2680,29 @@
         <v>106</v>
       </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2" t="s">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2" t="s">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AB10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       <c r="E11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2731,13 +2731,13 @@
       <c r="H11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>116</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -2759,29 +2759,29 @@
         <v>118</v>
       </c>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2" t="s">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AB11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE11" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="E12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2810,13 +2810,13 @@
       <c r="H12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>128</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -2836,29 +2836,29 @@
         <v>129</v>
       </c>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2" t="s">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AB12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AB12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>135</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2887,13 +2887,13 @@
       <c r="H13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>139</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -2915,29 +2915,29 @@
         <v>140</v>
       </c>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AB13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AB13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE13" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2966,13 +2966,13 @@
       <c r="H14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -2994,29 +2994,29 @@
         <v>89657755</v>
       </c>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2" t="s">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AB14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AB14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AD14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AD14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       <c r="E15" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -3045,13 +3045,13 @@
       <c r="H15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>159</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -3071,29 +3071,29 @@
         <v>18602437745</v>
       </c>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2" t="s">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AB15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AB15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE15" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       <c r="E16" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -3122,13 +3122,13 @@
       <c r="H16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>169</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -3150,29 +3150,29 @@
         <v>170</v>
       </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2" t="s">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2" t="s">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AB16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AB16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       <c r="E17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -3201,13 +3201,13 @@
       <c r="H17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -3229,29 +3229,29 @@
         <v>18642076227</v>
       </c>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2" t="s">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AB17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AB17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE17" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       <c r="E18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -3280,13 +3280,13 @@
       <c r="H18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>188</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -3308,29 +3308,29 @@
         <v>88080988</v>
       </c>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2" t="s">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2" t="s">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AB18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       <c r="E19" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>194</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -3359,13 +3359,13 @@
       <c r="H19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>198</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -3385,29 +3385,29 @@
         <v>199</v>
       </c>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2" t="s">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AB19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AB19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE19" s="3" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       <c r="E20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3436,13 +3436,13 @@
       <c r="H20" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>209</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -3464,29 +3464,29 @@
         <v>210</v>
       </c>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2" t="s">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2" t="s">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AB20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AB20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       <c r="E21" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>215</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -3515,13 +3515,13 @@
       <c r="H21" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>219</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -3543,29 +3543,29 @@
         <v>89795429</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2" t="s">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AB21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AB21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="3" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       <c r="E22" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -3594,13 +3594,13 @@
       <c r="H22" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>229</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -3622,29 +3622,29 @@
         <v>13804055434</v>
       </c>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2" t="s">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2" t="s">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AB22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AB22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE22" s="3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       <c r="E23" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>235</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -3673,13 +3673,13 @@
       <c r="H23" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>239</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -3701,29 +3701,29 @@
         <v>88922220</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2" t="s">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2" t="s">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AB23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AB23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE23" s="3" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -3752,13 +3752,13 @@
       <c r="H24" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>248</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -3780,29 +3780,29 @@
         <v>89649898</v>
       </c>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2" t="s">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2" t="s">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AB24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AB24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE24" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       <c r="E25" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3831,13 +3831,13 @@
       <c r="H25" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -3859,29 +3859,29 @@
         <v>258</v>
       </c>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2" t="s">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2" t="s">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AB25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AB25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE25" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       <c r="E26" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>264</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3910,13 +3910,13 @@
       <c r="H26" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>268</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -3940,33 +3940,33 @@
       <c r="R26" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2" t="s">
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="X26" s="2" t="s">
+      <c r="X26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AA26" s="2" t="s">
+      <c r="AA26" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="AB26" s="2" t="s">
+      <c r="AB26" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AC26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AC26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD26" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AE26" s="3" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
       <c r="E27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>280</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -3993,13 +3993,13 @@
       <c r="H27" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>284</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -4019,29 +4019,29 @@
         <v>29866218</v>
       </c>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2" t="s">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2" t="s">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AB27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AB27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE27" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       <c r="E28" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -4070,13 +4070,13 @@
       <c r="H28" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>293</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -4098,29 +4098,29 @@
         <v>25642824</v>
       </c>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2" t="s">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2" t="s">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AB28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AB28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
